--- a/all_for_analysis/data_raw/Species-level_data.xlsx
+++ b/all_for_analysis/data_raw/Species-level_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki21\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prop_of_termite_soldier-main_submit\prop_of_termite_soldier\all_for_analysis\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31381D6-F5E2-4E1C-84AD-8C54B419B00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F6A829-BD8D-4730-B50F-CA03FF116E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E7872794-8E5F-4A97-81BD-BB13183D9438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E7872794-8E5F-4A97-81BD-BB13183D9438}"/>
   </bookViews>
   <sheets>
     <sheet name="all_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="460">
   <si>
     <t>Family</t>
   </si>
@@ -1889,6 +1889,10 @@
   </si>
   <si>
     <t>sol_str_ref.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sol_size_to_imago</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2355,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8D94E-E93D-48A2-A675-84022553FBB4}">
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13557,10 +13561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAD6C6A-9B05-40A0-B2E2-E6853735FDF8}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13569,7 +13573,7 @@
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13604,22 +13608,25 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>371</v>
       </c>
@@ -13651,21 +13658,22 @@
       <c r="K2" s="4">
         <v>2.9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>371</v>
       </c>
@@ -13699,21 +13707,22 @@
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>371</v>
       </c>
@@ -13747,21 +13756,22 @@
       <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>371</v>
       </c>
@@ -13795,21 +13805,22 @@
       <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>371</v>
       </c>
@@ -13843,21 +13854,22 @@
       <c r="K6" s="4">
         <v>60</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>371</v>
       </c>
@@ -13891,21 +13903,22 @@
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>371</v>
       </c>
@@ -13937,21 +13950,22 @@
       <c r="K8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>371</v>
       </c>
@@ -13985,21 +13999,22 @@
       <c r="K9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>371</v>
       </c>
@@ -14031,23 +14046,24 @@
       <c r="K10" s="4">
         <v>10.8</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>371</v>
       </c>
@@ -14081,21 +14097,22 @@
       <c r="K11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>371</v>
       </c>
@@ -14127,19 +14144,20 @@
       <c r="K12" s="4">
         <v>1</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -14173,23 +14191,24 @@
       <c r="K13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -14221,21 +14240,22 @@
       <c r="K14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -14267,21 +14287,22 @@
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -14313,21 +14334,22 @@
       <c r="K16" s="4">
         <v>26.9</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:17" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -14359,21 +14381,22 @@
       <c r="K17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -14405,21 +14428,22 @@
       <c r="K18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -14453,21 +14477,22 @@
       <c r="K19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -14501,21 +14526,22 @@
       <c r="K20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -14547,21 +14573,22 @@
       <c r="K21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="283.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:17" ht="283.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
@@ -14595,21 +14622,22 @@
       <c r="K22" s="4">
         <v>2</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="3"/>
+      <c r="P22" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -14641,19 +14669,20 @@
       <c r="K23" s="4">
         <v>10</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>92</v>
       </c>
@@ -14685,21 +14714,22 @@
       <c r="K24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="337.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:17" ht="337.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>244</v>
       </c>
@@ -14731,21 +14761,22 @@
       <c r="K25" s="4">
         <v>20</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="3"/>
+      <c r="P25" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>244</v>
       </c>
@@ -14777,19 +14808,20 @@
       <c r="K26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4" t="s">
+      <c r="O26" s="3"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>118</v>
       </c>
@@ -14821,19 +14853,20 @@
       <c r="K27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="4" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>118</v>
       </c>
@@ -14865,23 +14898,24 @@
       <c r="K28" s="4">
         <v>1.6</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>118</v>
       </c>
@@ -14913,23 +14947,24 @@
       <c r="K29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>118</v>
       </c>
@@ -14961,23 +14996,24 @@
       <c r="K30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>311</v>
       </c>
       <c r="O30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P30" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>118</v>
       </c>
@@ -15009,19 +15045,20 @@
       <c r="K31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="4" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>118</v>
       </c>
@@ -15053,19 +15090,20 @@
       <c r="K32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="4"/>
+      <c r="M32" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="4" t="s">
+      <c r="O32" s="3"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
         <v>118</v>
       </c>
@@ -15099,19 +15137,20 @@
       <c r="K33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="4"/>
+      <c r="M33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="4" t="s">
+      <c r="O33" s="3"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>118</v>
       </c>
@@ -15143,19 +15182,20 @@
       <c r="K34" s="4">
         <v>17.3</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="4"/>
+      <c r="M34" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4" t="s">
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>118</v>
       </c>
@@ -15187,19 +15227,20 @@
       <c r="K35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>118</v>
       </c>
@@ -15231,19 +15272,20 @@
       <c r="K36" s="4">
         <v>3.5</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="4"/>
+      <c r="M36" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4" t="s">
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>118</v>
       </c>
@@ -15275,19 +15317,20 @@
       <c r="K37" s="4">
         <v>8.5</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4" t="s">
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>118</v>
       </c>
@@ -15319,19 +15362,20 @@
       <c r="K38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="4"/>
+      <c r="M38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4" t="s">
+      <c r="O38" s="3"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
@@ -15365,21 +15409,22 @@
       <c r="K39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="4" t="s">
+      <c r="O39" s="3"/>
+      <c r="P39" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
         <v>118</v>
       </c>
@@ -15413,21 +15458,22 @@
       <c r="K40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="4" t="s">
+      <c r="O40" s="3"/>
+      <c r="P40" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
         <v>118</v>
       </c>
@@ -15459,19 +15505,20 @@
       <c r="K41" s="4">
         <v>30</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4" t="s">
+      <c r="O41" s="3"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
         <v>118</v>
       </c>
@@ -15503,19 +15550,20 @@
       <c r="K42" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N42" s="3"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4" t="s">
+      <c r="O42" s="3"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
         <v>118</v>
       </c>
@@ -15547,19 +15595,20 @@
       <c r="K43" s="4">
         <v>5.7</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="4"/>
+      <c r="M43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4" t="s">
+      <c r="O43" s="3"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>118</v>
       </c>
@@ -15593,19 +15642,20 @@
       <c r="K44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="N44" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4" t="s">
+      <c r="O44" s="3"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
         <v>118</v>
       </c>
@@ -15637,19 +15687,20 @@
       <c r="K45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="4"/>
+      <c r="M45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N45" s="3"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4" t="s">
+      <c r="O45" s="3"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="27" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:17" ht="27" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
@@ -15681,23 +15732,24 @@
       <c r="K46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L46" s="4"/>
+      <c r="M46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="N46" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="O46" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="P46" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="Q46" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:17" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
         <v>118</v>
       </c>
@@ -15729,23 +15781,24 @@
       <c r="K47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="4"/>
+      <c r="M47" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="P47" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:17" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
         <v>118</v>
       </c>
@@ -15777,23 +15830,24 @@
       <c r="K48" s="4">
         <v>24.5</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="4"/>
+      <c r="M48" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="O48" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="P48" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="P48" s="4" t="s">
+      <c r="Q48" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
         <v>118</v>
       </c>
@@ -15825,19 +15879,20 @@
       <c r="K49" s="4">
         <v>36.700000000000003</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="N49" s="3"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4" t="s">
+      <c r="O49" s="3"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
         <v>118</v>
       </c>
@@ -15869,21 +15924,22 @@
       <c r="K50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="4"/>
+      <c r="M50" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4" t="s">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
         <v>118</v>
       </c>
@@ -15915,21 +15971,22 @@
       <c r="K51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="N51" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
@@ -15961,21 +16018,22 @@
       <c r="K52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="4"/>
+      <c r="M52" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="N52" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="O52" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4" t="s">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4" t="s">
         <v>118</v>
       </c>
@@ -16007,21 +16065,22 @@
       <c r="K53" s="4">
         <v>30.1</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="4"/>
+      <c r="M53" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="O53" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4" t="s">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
         <v>118</v>
       </c>
@@ -16053,21 +16112,22 @@
       <c r="K54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="N54" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="O54" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4" t="s">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>118</v>
       </c>
@@ -16099,21 +16159,22 @@
       <c r="K55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="4"/>
+      <c r="M55" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="N55" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4" t="s">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>118</v>
       </c>
@@ -16145,21 +16206,22 @@
       <c r="K56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="4"/>
+      <c r="M56" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="N56" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4" t="s">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
         <v>118</v>
       </c>
@@ -16191,21 +16253,22 @@
       <c r="K57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L57" s="4"/>
+      <c r="M57" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="O57" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4" t="s">
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>118</v>
       </c>
@@ -16237,21 +16300,22 @@
       <c r="K58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="L58" s="4"/>
+      <c r="M58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="N58" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="O58" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4" t="s">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>118</v>
       </c>
@@ -16283,21 +16347,22 @@
       <c r="K59" s="4">
         <v>25.7</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="L59" s="4"/>
+      <c r="M59" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="N59" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4" t="s">
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
         <v>118</v>
       </c>
@@ -16329,21 +16394,22 @@
       <c r="K60" s="4">
         <v>35</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="L60" s="4"/>
+      <c r="M60" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="N60" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4" t="s">
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
         <v>118</v>
       </c>
@@ -16375,23 +16441,24 @@
       <c r="K61" s="4">
         <v>6.6</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="L61" s="4"/>
+      <c r="M61" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="N61" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="P61" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="Q61" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>118</v>
       </c>
@@ -16423,23 +16490,24 @@
       <c r="K62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="L62" s="4"/>
+      <c r="M62" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="N62" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O62" s="4" t="s">
+      <c r="P62" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="P62" s="4" t="s">
+      <c r="Q62" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
         <v>118</v>
       </c>
@@ -16471,23 +16539,24 @@
       <c r="K63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="L63" s="4"/>
+      <c r="M63" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="O63" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O63" s="4" t="s">
+      <c r="P63" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="P63" s="4" t="s">
+      <c r="Q63" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
         <v>118</v>
       </c>
@@ -16519,21 +16588,22 @@
       <c r="K64" s="4">
         <v>7.4</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="N64" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="O64" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4" t="s">
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
         <v>118</v>
       </c>
@@ -16565,21 +16635,22 @@
       <c r="K65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="N65" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="O65" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4" t="s">
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
         <v>118</v>
       </c>
@@ -16613,21 +16684,22 @@
       <c r="K66" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="4"/>
+      <c r="M66" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="N66" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="O66" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4" t="s">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
         <v>118</v>
       </c>
@@ -16659,19 +16731,20 @@
       <c r="K67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="4"/>
+      <c r="M67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="N67" s="4"/>
       <c r="O67" s="4"/>
-      <c r="P67" s="4" t="s">
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
         <v>118</v>
       </c>
@@ -16703,23 +16776,24 @@
       <c r="K68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="L68" s="4"/>
+      <c r="M68" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="O68" s="4" t="s">
+      <c r="P68" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="P68" s="4" t="s">
+      <c r="Q68" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
         <v>118</v>
       </c>
@@ -16753,21 +16827,22 @@
       <c r="K69" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="O69" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4" t="s">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="81" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" ht="81" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>118</v>
       </c>
@@ -16799,23 +16874,24 @@
       <c r="K70" s="4">
         <v>14.1</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="N70" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="O70" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="O70" s="6" t="s">
+      <c r="P70" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="P70" s="4" t="s">
+      <c r="Q70" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="81" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" ht="81" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>118</v>
       </c>
@@ -16847,24 +16923,25 @@
       <c r="K71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="M71" s="4" t="s">
+      <c r="N71" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="N71" s="3" t="s">
+      <c r="O71" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="O71" s="6" t="s">
+      <c r="P71" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="P71" s="4" t="s">
+      <c r="Q71" s="4" t="s">
         <v>375</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:P71">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:Q71">
     <sortCondition ref="A1:A71"/>
     <sortCondition ref="B1:B71"/>
     <sortCondition ref="C1:C71"/>

--- a/all_for_analysis/data_raw/Species-level_data.xlsx
+++ b/all_for_analysis/data_raw/Species-level_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prop_of_termite_soldier-main_submit\prop_of_termite_soldier\all_for_analysis\data_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Termite_sol_prop\all_for_analysis\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F6A829-BD8D-4730-B50F-CA03FF116E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6BE1B3-EF66-45F1-AD16-B4501D9585FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E7872794-8E5F-4A97-81BD-BB13183D9438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{E7872794-8E5F-4A97-81BD-BB13183D9438}"/>
   </bookViews>
   <sheets>
     <sheet name="all_data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="460">
   <si>
     <t>Family</t>
   </si>
@@ -2359,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8D94E-E93D-48A2-A675-84022553FBB4}">
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -10462,8 +10462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D64EDC7-C88C-417C-8872-2B613208C36A}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13542,11 +13542,8 @@
       <c r="L68" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="4" t="s">
